--- a/data/unchecked/manual_collect/china/jiangxi/jiangxiCaseStatistics_20200219.xlsx
+++ b/data/unchecked/manual_collect/china/jiangxi/jiangxiCaseStatistics_20200219.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{8796A110-0599-314F-BDF2-DCE4B3777BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E6957812-2F34-1C49-A26B-5BA0A853C1C8}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{8796A110-0599-314F-BDF2-DCE4B3777BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BA7D6949-33C3-4843-B7A9-98B972D9A07F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9371" uniqueCount="3304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9371" uniqueCount="3302">
   <si>
     <t>统计级别</t>
   </si>
@@ -10799,8 +10799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="AQ7" sqref="AQ7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.91015625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11806,6 +11806,9 @@
       </c>
       <c r="P14" s="12">
         <v>1</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>-1</v>
       </c>
       <c r="R14" s="12">
         <v>-3</v>
